--- a/Male-MI-0_Cluster.xlsx
+++ b/Male-MI-0_Cluster.xlsx
@@ -858,7 +858,7 @@
   <dimension ref="A1:J649"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
